--- a/dataset/ANOVA.xlsx
+++ b/dataset/ANOVA.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakti\Google Drive\2020-1-Statistika-Bisnis-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982DDCCF-C196-465E-AE9A-6DAA30FD562D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AC570C-03D0-4AAD-968F-9C3C0567A09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="One-Way" sheetId="2" r:id="rId1"/>
-    <sheet name="Two-Way" sheetId="3" r:id="rId2"/>
+    <sheet name="Two-Way dengan Replikasi " sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Nilai (Y)</t>
   </si>
@@ -885,7 +885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,8 +1004,15 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,12 +1028,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,8 +1079,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF25FF88"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1153,6 +1166,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1164,7 +1214,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,8 +1226,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1185,61 +1235,36 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1254,32 +1279,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1294,9 +1376,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF25FF88"/>
+      <color rgb="FF00E266"/>
+      <color rgb="FFFFFFB9"/>
+      <color rgb="FFFFFF89"/>
+      <color rgb="FFFFFF5B"/>
       <color rgb="FFFF5353"/>
-      <color rgb="FF00E266"/>
-      <color rgb="FFFFFF5B"/>
       <color rgb="FFFF4747"/>
       <color rgb="FFFF8181"/>
       <color rgb="FFE169B6"/>
@@ -1383,8 +1468,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2835,7 +2920,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -4452,1294 +4537,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3543300" cy="13989050"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD95BA1-7706-4883-AD12-CC530AB87E90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8102600" y="609600"/>
-          <a:ext cx="3543300" cy="13989050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Cara Melakukan Uji Two-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ANOVA Replikasi dengan Excel</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* Tahap Awal Entry Data</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Data Setiap Variabel Disusun sebagai berikut:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Buat Label di cell </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-  A4: Gender. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-  B4: Pendidikan. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-  C4: Ujian.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-  Isi data mulai cell A5 s/d C34.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>* Tahap</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Kedua</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Pada menu excel, klik </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Data, Data Analysis</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Maka akan muncul jendela sebagai berikut: Kemudian Pilih </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Anova: Two-Factor With Replication</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Klik </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>. Maka akan mucul jendela sebagai berikut: Kotak </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Input Range</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> arahkan mulai cell F4 s/d cell I14. Kemudian kotak </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Rows per </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>sample isi dengan </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>“5” (ingat: 5 menunjukkan jumlah replikasi perkelompok gender -&gt; Lihat contoh tabel: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>cell F4 s/d cell I14</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Biarkan Alpha: 0,05 (Artinya taraf signifikansi yang diinginkan 0,05).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Kotak </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Output Range </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>arahkan pada cell F21.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Klik </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>OK.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Lihat hasilnya dan interprestasikan outputnya!</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tahap Membaca Hasil Output Two Way Anova</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Lihat Tabel Summary: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>tabel summary merupakan hasil analisis deskriptif</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Lihat Tabel Anova: </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Pada baris </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" i="1">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Sample</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> lihat nilai P-Value: merupakan nilai P Value Variabel Gender. Signifikan apabila &lt;0,05.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Pada baris </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" i="1">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Column</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> lihat nilai P-Value: merupakan nilai P Value Variabel Pendidikan. Signifikan apabila &lt;0,05.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Pada baris </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" i="1">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Interaction</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> lihat nilai P-Value: merupakan nilai P Value Interaksi Gender dan Pendidikan. Signifikan apabila &lt;0,05.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Pada baris </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" i="1">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Within </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>lihat nilai MS. Nilai Ms tersebut merupakan nilai Error. Makin kecil nilainya berarti makin baik model multivariatnya.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -5984,185 +4781,1453 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>383952</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="Two Way Anova Data Analysis">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED591B1C-11E2-4095-8E6F-860CEA1EC38E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3F07C8-3561-4593-A565-A21F28408786}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7956550" y="533400"/>
+          <a:ext cx="3721100" cy="14020800"/>
+          <a:chOff x="7956550" y="533400"/>
+          <a:chExt cx="3721100" cy="14020800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD95BA1-7706-4883-AD12-CC530AB87E90}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7956550" y="533400"/>
+            <a:ext cx="3721100" cy="14020800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Cara Melakukan Uji Two-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ANOVA dengan Replikasi menggunkan Excel</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>* Tahap Awal Entry Data</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Data Setiap Variabel Disusun sebagai berikut:</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Buat Label di cell </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-  A4: Gender. </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-  B4: Pendidikan. </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-  C4: Ujian.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-  Isi data mulai cell A5 s/d C34.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>* Tahap</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Kedua</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Pada menu excel, klik </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Data, Data Analysis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Maka akan muncul jendela sebagai berikut: Kemudian Pilih </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Anova: Two-Factor With Replication</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Klik </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>OK</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>. Maka akan mucul jendela sebagai berikut: Kotak </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Input Range</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> arahkan mulai cell F4 s/d cell I14. Kemudian kotak </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Rows per </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>sample isi dengan </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>“5” (ingat: 5 menunjukkan jumlah replikasi perkelompok gender -&gt; Lihat contoh tabel: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>cell F4 s/d cell I14</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>).</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Biarkan Alpha: 0,05 (Artinya taraf signifikansi yang diinginkan 0,05).</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Kotak </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Output Range </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>arahkan pada cell F21.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Klik </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>OK.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Lihat hasilnya dan interprestasikan outputnya!</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>*</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Tahap Membaca Hasil Output Two Way Anova</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Lihat Tabel Summary: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>tabel summary merupakan hasil analisis deskriptif</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Lihat Tabel Anova: </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Pada baris </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sample</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> lihat nilai P-Value: merupakan nilai P Value Variabel Gender. Signifikan apabila &lt;0,05.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Pada baris </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Column</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> lihat nilai P-Value: merupakan nilai P Value Variabel Pendidikan. Signifikan apabila &lt;0,05.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Pada baris </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Interaction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> lihat nilai P-Value: merupakan nilai P Value Interaksi Gender dan Pendidikan. Signifikan apabila &lt;0,05.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Pada baris </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Within </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>lihat nilai MS. Nilai Ms tersebut merupakan nilai Error. Makin kecil nilainya berarti makin baik model multivariatnya.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="Picture 13" descr="Two Way Anova Data Analysis">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED591B1C-11E2-4095-8E6F-860CEA1EC38E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="41438"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8346852" y="3492500"/>
+            <a:ext cx="3083147" cy="1085850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect b="41438"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8372252" y="3327400"/>
-          <a:ext cx="3083147" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>438701</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="Two Way Anova Two Factor">
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="Picture 14" descr="Two Way Anova Two Factor">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0666E53-D679-4B83-A2D9-642FD723CAFC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8369300" y="5156200"/>
+            <a:ext cx="3105701" cy="1593850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0666E53-D679-4B83-A2D9-642FD723CAFC}"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="Picture 15" descr="Two Way Anova Dalam Excel">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE7E170-843E-4AA9-8C4F-1499B3FE6DFE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8436777" y="7931150"/>
+            <a:ext cx="3024973" cy="1835150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8369300" y="5118100"/>
-          <a:ext cx="3105701" cy="1593850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>442127</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="Two Way Anova Dalam Excel">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE7E170-843E-4AA9-8C4F-1499B3FE6DFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8430427" y="7797800"/>
-          <a:ext cx="3024973" cy="1835150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6505,62 +6570,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -6568,64 +6633,64 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="45">
+      <c r="A6" s="33">
         <v>51</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <v>82</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>79</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="45">
+      <c r="A7" s="33">
         <v>87</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <v>91</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>84</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>80</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="19">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="45">
+      <c r="A8" s="33">
         <v>50</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="16">
         <v>92</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>74</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="45">
+      <c r="A9" s="33">
         <v>48</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <v>80</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>98</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <v>71</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -6633,16 +6698,16 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45">
+      <c r="A10" s="33">
         <v>79</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <v>52</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>63</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>67</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -6674,16 +6739,16 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="45">
+      <c r="A11" s="33">
         <v>61</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="16">
         <v>79</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>83</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -6703,16 +6768,16 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="45">
+      <c r="A12" s="33">
         <v>53</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <v>73</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>85</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="17"/>
       <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
@@ -6730,14 +6795,14 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="45"/>
-      <c r="B13" s="20">
+      <c r="A13" s="33"/>
+      <c r="B13" s="16">
         <v>74</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>58</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="17"/>
       <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
@@ -6812,7 +6877,7 @@
       <c r="L17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="13"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F18" s="1" t="s">
@@ -6834,7 +6899,7 @@
         <f>FINV(G7,H18,H19)</f>
         <v>#NUM!</v>
       </c>
-      <c r="N18" s="13"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F19" s="1" t="s">
@@ -6844,7 +6909,7 @@
         <f>G19/H19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="13"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F20" s="5" t="s">
@@ -6859,283 +6924,283 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="N20" s="12"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="42" t="e">
+      <c r="G22" s="30" t="e">
         <f>IF(J18&lt;=L18,"Tidak Signifikan (pada alfa = "&amp;G7&amp;")","Signifikan (pada alfa = "&amp;G7&amp;")")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="27" t="e">
+      <c r="G23" s="21" t="e">
         <f>IF(K18&gt;0.05,"Tidak Signifikan (pada alfa = 0.05)","Signifikan (pada alfa = 0.05)")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="36"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="43">
+      <c r="A27" s="31">
         <v>1</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="31">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="43">
+      <c r="A28" s="31">
         <v>1</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="31">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="43">
+      <c r="A29" s="31">
         <v>1</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="31">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="43">
+      <c r="A30" s="31">
         <v>1</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="31">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="43">
+      <c r="A31" s="31">
         <v>1</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="31">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="43">
+      <c r="A32" s="31">
         <v>1</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="31">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="43">
+      <c r="A33" s="31">
         <v>1</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="31">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="46">
+      <c r="A34" s="34">
         <v>2</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="34">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="46">
+      <c r="A35" s="34">
         <v>2</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="34">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="46">
+      <c r="A36" s="34">
         <v>2</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="34">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="46">
+      <c r="A37" s="34">
         <v>2</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="34">
         <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="46">
+      <c r="A38" s="34">
         <v>2</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="34">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="46">
+      <c r="A39" s="34">
         <v>2</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="34">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="46">
+      <c r="A40" s="34">
         <v>2</v>
       </c>
-      <c r="B40" s="46">
+      <c r="B40" s="34">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="46">
+      <c r="A41" s="34">
         <v>2</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="34">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="9">
+      <c r="A42" s="7">
         <v>3</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="7">
         <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="9">
+      <c r="A43" s="7">
         <v>3</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="7">
         <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="9">
+      <c r="A44" s="7">
         <v>3</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="7">
         <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="9">
+      <c r="A45" s="7">
         <v>3</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="7">
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="9">
+      <c r="A46" s="7">
         <v>3</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="7">
         <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="9">
+      <c r="A47" s="7">
         <v>3</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="7">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="9">
+      <c r="A48" s="7">
         <v>3</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="7">
         <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="9">
+      <c r="A49" s="7">
         <v>3</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="7">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="11">
+      <c r="A50" s="9">
         <v>4</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="9">
         <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="11">
+      <c r="A51" s="9">
         <v>4</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="9">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="11">
+      <c r="A52" s="9">
         <v>4</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="9">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="11">
+      <c r="A53" s="9">
         <v>4</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="9">
         <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="11">
+      <c r="A54" s="9">
         <v>4</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="9">
         <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="11">
+      <c r="A55" s="9">
         <v>4</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="9">
         <v>51</v>
       </c>
     </row>
@@ -7157,8 +7222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CD2202-B7D1-4E9A-803E-971214430CCE}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7169,56 +7234,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="23"/>
+      <c r="F4" s="48" t="s">
+        <v>32</v>
+      </c>
       <c r="G4" s="48" t="s">
         <v>35</v>
       </c>
@@ -7233,27 +7300,27 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5" s="52">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="53">
         <v>11</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="49">
         <v>11</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="50">
         <v>67</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="51">
         <v>45</v>
       </c>
       <c r="J5" s="1"/>
@@ -7261,25 +7328,25 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6" s="52">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="41">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="53">
         <v>24</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30">
+      <c r="F6" s="43"/>
+      <c r="G6" s="49">
         <v>24</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="50">
         <v>29</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="51">
         <v>57</v>
       </c>
       <c r="J6" s="1"/>
@@ -7287,25 +7354,25 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7" s="52">
         <v>1</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="41">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="53">
         <v>67</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30">
+      <c r="F7" s="43"/>
+      <c r="G7" s="49">
         <v>67</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="50">
         <v>45</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="51">
         <v>58</v>
       </c>
       <c r="J7" s="1"/>
@@ -7313,25 +7380,25 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="A8" s="52">
         <v>1</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="41">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="53">
         <v>11</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30">
+      <c r="F8" s="43"/>
+      <c r="G8" s="49">
         <v>11</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="50">
         <v>31</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="51">
         <v>45</v>
       </c>
       <c r="J8" s="1"/>
@@ -7339,25 +7406,25 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="A9" s="52">
         <v>1</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="41">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="53">
         <v>27</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30">
+      <c r="F9" s="44"/>
+      <c r="G9" s="49">
         <v>27</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="50">
         <v>56</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="51">
         <v>56</v>
       </c>
       <c r="J9" s="1"/>
@@ -7365,27 +7432,27 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="A10" s="52">
         <v>1</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="54">
         <v>2</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="53">
         <v>67</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="49">
         <v>67</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="50">
         <v>22</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="51">
         <v>67</v>
       </c>
       <c r="J10" s="1"/>
@@ -7393,25 +7460,25 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="A11" s="52">
         <v>1</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="54">
         <v>2</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="53">
         <v>29</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="31">
+      <c r="F11" s="46"/>
+      <c r="G11" s="49">
         <v>11</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="50">
         <v>56</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="51">
         <v>11</v>
       </c>
       <c r="J11" s="1"/>
@@ -7419,25 +7486,25 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="A12" s="52">
         <v>1</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="54">
         <v>2</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="53">
         <v>45</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="31">
+      <c r="F12" s="46"/>
+      <c r="G12" s="49">
         <v>56</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="50">
         <v>45</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="51">
         <v>22</v>
       </c>
       <c r="J12" s="1"/>
@@ -7445,25 +7512,25 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+      <c r="A13" s="52">
         <v>1</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="54">
         <v>2</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="53">
         <v>31</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="31">
+      <c r="F13" s="46"/>
+      <c r="G13" s="49">
         <v>64</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="50">
         <v>90</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="51">
         <v>45</v>
       </c>
       <c r="J13" s="1"/>
@@ -7471,25 +7538,25 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="A14" s="52">
         <v>1</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="54">
         <v>2</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="53">
         <v>56</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="31">
+      <c r="F14" s="47"/>
+      <c r="G14" s="49">
         <v>65</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="50">
         <v>12</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="51">
         <v>32</v>
       </c>
       <c r="J14" s="1"/>
@@ -7497,13 +7564,13 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="A15" s="52">
         <v>1</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="55">
         <v>3</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="53">
         <v>45</v>
       </c>
       <c r="D15" s="1"/>
@@ -7517,551 +7584,553 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+      <c r="A16" s="52">
         <v>1</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="55">
         <v>3</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="53">
         <v>57</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
+      <c r="A17" s="52">
         <v>1</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="55">
         <v>3</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="53">
         <v>58</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+      <c r="A18" s="52">
         <v>1</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="55">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="53">
         <v>45</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
+      <c r="A19" s="52">
         <v>1</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="55">
         <v>3</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="53">
         <v>56</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+      <c r="A20" s="56">
         <v>2</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="41">
         <v>1</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="53">
         <v>67</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+      <c r="A21" s="56">
         <v>2</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="41">
         <v>1</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="53">
         <v>11</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+      <c r="A22" s="56">
         <v>2</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="41">
         <v>1</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="53">
         <v>56</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+      <c r="A23" s="56">
         <v>2</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="41">
         <v>1</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="53">
         <v>64</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+      <c r="A24" s="56">
         <v>2</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="41">
         <v>1</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="53">
         <v>65</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
+      <c r="A25" s="56">
         <v>2</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="54">
         <v>2</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="53">
         <v>22</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
+      <c r="A26" s="56">
         <v>2</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="54">
         <v>2</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="53">
         <v>56</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+      <c r="A27" s="56">
         <v>2</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="54">
         <v>2</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="53">
         <v>45</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+      <c r="A28" s="56">
         <v>2</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="54">
         <v>2</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="53">
         <v>90</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+      <c r="A29" s="56">
         <v>2</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="54">
         <v>2</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="53">
         <v>12</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+      <c r="A30" s="56">
         <v>2</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="55">
         <v>3</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="53">
         <v>67</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
+      <c r="A31" s="56">
         <v>2</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="55">
         <v>3</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="53">
         <v>11</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+      <c r="A32" s="56">
         <v>2</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="55">
         <v>3</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="53">
         <v>22</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+      <c r="A33" s="56">
         <v>2</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="55">
         <v>3</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="53">
         <v>45</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
+      <c r="A34" s="56">
         <v>2</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="55">
         <v>3</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="53">
         <v>32</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="33"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="33"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="33"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="33"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="33"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="33"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="33"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F10:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
